--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st02.xlsx
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waai Fu"]   Hey, you're doing the whole "triad face" thing again, you know?
+    <t xml:space="preserve">[name="Waai Fu"]   Hey, you're doing the whole 'triad face' thing again, you know?
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waai Fu"]   They've gotten "mixed up in things somehow" dozens of times this year alone. They need to be a little more careful, and stop making trouble for everyone.
+    <t xml:space="preserve">[name="Waai Fu"]   They've gotten 'mixed up in things somehow' dozens of times this year alone. They need to be a little more careful, and stop making trouble for everyone.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st02.xlsx
@@ -1108,7 +1108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">0:00 AM \ Dusty
+    <t xml:space="preserve">0:00 A.M. \ Dusty
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Jaye"]   …
+    <t xml:space="preserve">[name="Jaye"]   ...
 </t>
   </si>
   <si>
